--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H2">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I2">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J2">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N2">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O2">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P2">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q2">
-        <v>45.95926957289333</v>
+        <v>50.14648512708667</v>
       </c>
       <c r="R2">
-        <v>413.6334261560399</v>
+        <v>451.3183661437801</v>
       </c>
       <c r="S2">
-        <v>0.03170366172601068</v>
+        <v>0.04199603031029064</v>
       </c>
       <c r="T2">
-        <v>0.03170366172601068</v>
+        <v>0.04199603031029064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H3">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I3">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J3">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P3">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q3">
-        <v>66.48767972031999</v>
+        <v>57.59040506410667</v>
       </c>
       <c r="R3">
-        <v>598.38911748288</v>
+        <v>518.3136455769601</v>
       </c>
       <c r="S3">
-        <v>0.04586458676104814</v>
+        <v>0.04823006817974861</v>
       </c>
       <c r="T3">
-        <v>0.04586458676104813</v>
+        <v>0.0482300681797486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H4">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I4">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J4">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N4">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O4">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P4">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q4">
-        <v>7.985211735593333</v>
+        <v>8.702754466915556</v>
       </c>
       <c r="R4">
-        <v>71.86690562033999</v>
+        <v>78.32479020224001</v>
       </c>
       <c r="S4">
-        <v>0.005508365429400453</v>
+        <v>0.00728827034336227</v>
       </c>
       <c r="T4">
-        <v>0.005508365429400451</v>
+        <v>0.00728827034336227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H5">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I5">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J5">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N5">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O5">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P5">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q5">
-        <v>6.537929471573332</v>
+        <v>6.164015757822223</v>
       </c>
       <c r="R5">
-        <v>58.84136524416</v>
+        <v>55.47614182040001</v>
       </c>
       <c r="S5">
-        <v>0.00450999996913632</v>
+        <v>0.005162160257943691</v>
       </c>
       <c r="T5">
-        <v>0.00450999996913632</v>
+        <v>0.005162160257943691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H6">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I6">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J6">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N6">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O6">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P6">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q6">
-        <v>9.001573210203333</v>
+        <v>4.993475709691111</v>
       </c>
       <c r="R6">
-        <v>81.01415889182999</v>
+        <v>44.94128138722001</v>
       </c>
       <c r="S6">
-        <v>0.006209472750770711</v>
+        <v>0.004181871505578664</v>
       </c>
       <c r="T6">
-        <v>0.006209472750770709</v>
+        <v>0.004181871505578664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.392853</v>
       </c>
       <c r="I7">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J7">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N7">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O7">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P7">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q7">
-        <v>97.72261535793733</v>
+        <v>123.098711058859</v>
       </c>
       <c r="R7">
-        <v>879.5035382214359</v>
+        <v>1107.888399529731</v>
       </c>
       <c r="S7">
-        <v>0.06741109615276376</v>
+        <v>0.1030911177061373</v>
       </c>
       <c r="T7">
-        <v>0.06741109615276374</v>
+        <v>0.1030911177061372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.392853</v>
       </c>
       <c r="I8">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J8">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P8">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q8">
         <v>141.371914996288</v>
@@ -948,10 +948,10 @@
         <v>1272.347234966592</v>
       </c>
       <c r="S8">
-        <v>0.09752129248903751</v>
+        <v>0.1183943243910636</v>
       </c>
       <c r="T8">
-        <v>0.0975212924890375</v>
+        <v>0.1183943243910635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.392853</v>
       </c>
       <c r="I9">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J9">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N9">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O9">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P9">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q9">
-        <v>16.97885502186734</v>
+        <v>21.36336883480533</v>
       </c>
       <c r="R9">
-        <v>152.809695196806</v>
+        <v>192.270319513248</v>
       </c>
       <c r="S9">
-        <v>0.01171236795342246</v>
+        <v>0.01789111804830749</v>
       </c>
       <c r="T9">
-        <v>0.01171236795342246</v>
+        <v>0.01789111804830748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.392853</v>
       </c>
       <c r="I10">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J10">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N10">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O10">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P10">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q10">
-        <v>13.90151699374933</v>
+        <v>15.13131763495334</v>
       </c>
       <c r="R10">
-        <v>125.113652943744</v>
+        <v>136.18185871458</v>
       </c>
       <c r="S10">
-        <v>0.009589556064401834</v>
+        <v>0.01267198034760952</v>
       </c>
       <c r="T10">
-        <v>0.009589556064401832</v>
+        <v>0.01267198034760952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.392853</v>
       </c>
       <c r="I11">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J11">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N11">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O11">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P11">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q11">
-        <v>19.13993160926633</v>
+        <v>12.25789648085767</v>
       </c>
       <c r="R11">
-        <v>172.259384483397</v>
+        <v>110.321068327719</v>
       </c>
       <c r="S11">
-        <v>0.0132031236100639</v>
+        <v>0.01026558473332447</v>
       </c>
       <c r="T11">
-        <v>0.0132031236100639</v>
+        <v>0.01026558473332447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H12">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I12">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J12">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N12">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O12">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P12">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q12">
-        <v>133.3373841600489</v>
+        <v>207.6971673630133</v>
       </c>
       <c r="R12">
-        <v>1200.03645744044</v>
+        <v>1869.27450626712</v>
       </c>
       <c r="S12">
-        <v>0.09197890571643391</v>
+        <v>0.1739395396074764</v>
       </c>
       <c r="T12">
-        <v>0.09197890571643388</v>
+        <v>0.1739395396074764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H13">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I13">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J13">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P13">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q13">
-        <v>192.8945645821866</v>
+        <v>238.5284625390933</v>
       </c>
       <c r="R13">
-        <v>1736.05108123968</v>
+        <v>2146.75616285184</v>
       </c>
       <c r="S13">
-        <v>0.1330626896626454</v>
+        <v>0.1997597342520017</v>
       </c>
       <c r="T13">
-        <v>0.1330626896626454</v>
+        <v>0.1997597342520017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H14">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I14">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J14">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N14">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O14">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P14">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q14">
-        <v>23.16675731974889</v>
+        <v>36.04514746055111</v>
       </c>
       <c r="R14">
-        <v>208.50081587774</v>
+        <v>324.40632714496</v>
       </c>
       <c r="S14">
-        <v>0.01598091188522914</v>
+        <v>0.03018662427597632</v>
       </c>
       <c r="T14">
-        <v>0.01598091188522913</v>
+        <v>0.03018662427597632</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H15">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I15">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J15">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N15">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O15">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P15">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q15">
-        <v>18.96789095352889</v>
+        <v>25.53017642684444</v>
       </c>
       <c r="R15">
-        <v>170.71101858176</v>
+        <v>229.7715878416</v>
       </c>
       <c r="S15">
-        <v>0.01308444638121956</v>
+        <v>0.02138068222192697</v>
       </c>
       <c r="T15">
-        <v>0.01308444638121955</v>
+        <v>0.02138068222192696</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H16">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I16">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J16">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N16">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O16">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P16">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q16">
-        <v>26.11543299812555</v>
+        <v>20.68202302854222</v>
       </c>
       <c r="R16">
-        <v>235.03889698313</v>
+        <v>186.13820725688</v>
       </c>
       <c r="S16">
-        <v>0.01801496980468105</v>
+        <v>0.01732051336765841</v>
       </c>
       <c r="T16">
-        <v>0.01801496980468104</v>
+        <v>0.01732051336765841</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H17">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I17">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J17">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N17">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O17">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P17">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q17">
-        <v>71.8845926393471</v>
+        <v>68.840195284831</v>
       </c>
       <c r="R17">
-        <v>646.9613337541239</v>
+        <v>619.5617575634791</v>
       </c>
       <c r="S17">
-        <v>0.04958748973882932</v>
+        <v>0.05765139711031323</v>
       </c>
       <c r="T17">
-        <v>0.0495874897388293</v>
+        <v>0.05765139711031323</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H18">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I18">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J18">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>375.008064</v>
       </c>
       <c r="O18">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P18">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q18">
-        <v>103.9929445495253</v>
+        <v>79.059075049792</v>
       </c>
       <c r="R18">
-        <v>935.936500945728</v>
+        <v>711.531675448128</v>
       </c>
       <c r="S18">
-        <v>0.07173649987323723</v>
+        <v>0.06620937247506538</v>
       </c>
       <c r="T18">
-        <v>0.07173649987323721</v>
+        <v>0.06620937247506538</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H19">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I19">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J19">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N19">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O19">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P19">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q19">
-        <v>12.48961739571711</v>
+        <v>11.94698522738133</v>
       </c>
       <c r="R19">
-        <v>112.406556561454</v>
+        <v>107.522867046432</v>
       </c>
       <c r="S19">
-        <v>0.008615598304344114</v>
+        <v>0.01000520679473691</v>
       </c>
       <c r="T19">
-        <v>0.008615598304344113</v>
+        <v>0.01000520679473691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H20">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I20">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J20">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N20">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O20">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P20">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q20">
-        <v>10.22593268205511</v>
+        <v>8.461850265913334</v>
       </c>
       <c r="R20">
-        <v>92.03339413849599</v>
+        <v>76.15665239322001</v>
       </c>
       <c r="S20">
-        <v>0.007054061424336573</v>
+        <v>0.007086521006364354</v>
       </c>
       <c r="T20">
-        <v>0.007054061424336571</v>
+        <v>0.007086521006364354</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H21">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I21">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J21">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N21">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O21">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P21">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q21">
-        <v>14.07930172394144</v>
+        <v>6.854953884285667</v>
       </c>
       <c r="R21">
-        <v>126.713715515473</v>
+        <v>61.69458495857101</v>
       </c>
       <c r="S21">
-        <v>0.009712195675484449</v>
+        <v>0.005740798190950503</v>
       </c>
       <c r="T21">
-        <v>0.009712195675484448</v>
+        <v>0.005740798190950503</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H22">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I22">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J22">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N22">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O22">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P22">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q22">
-        <v>141.0874718215738</v>
+        <v>19.49720622878234</v>
       </c>
       <c r="R22">
-        <v>1269.787246394164</v>
+        <v>175.474856059041</v>
       </c>
       <c r="S22">
-        <v>0.09732507766066409</v>
+        <v>0.01632826830584088</v>
       </c>
       <c r="T22">
-        <v>0.09732507766066406</v>
+        <v>0.01632826830584088</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H23">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I23">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J23">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>375.008064</v>
       </c>
       <c r="O23">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P23">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q23">
-        <v>204.1063473418453</v>
+        <v>22.39143982850133</v>
       </c>
       <c r="R23">
-        <v>1836.957126076608</v>
+        <v>201.522958456512</v>
       </c>
       <c r="S23">
-        <v>0.1407968110109835</v>
+        <v>0.0187520936581228</v>
       </c>
       <c r="T23">
-        <v>0.1407968110109834</v>
+        <v>0.0187520936581228</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H24">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I24">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J24">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N24">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O24">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P24">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q24">
-        <v>24.51329941064378</v>
+        <v>3.383674811303111</v>
       </c>
       <c r="R24">
-        <v>220.619694695794</v>
+        <v>30.453073301728</v>
       </c>
       <c r="S24">
-        <v>0.01690978467512102</v>
+        <v>0.002833716253004071</v>
       </c>
       <c r="T24">
-        <v>0.01690978467512102</v>
+        <v>0.002833716253004071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H25">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I25">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J25">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N25">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O25">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P25">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q25">
-        <v>20.07037859096178</v>
+        <v>2.396600402264445</v>
       </c>
       <c r="R25">
-        <v>180.633407318656</v>
+        <v>21.56940362038</v>
       </c>
       <c r="S25">
-        <v>0.01384496532416847</v>
+        <v>0.002007073933099798</v>
       </c>
       <c r="T25">
-        <v>0.01384496532416847</v>
+        <v>0.002007073933099798</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H26">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I26">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J26">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N26">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O26">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P26">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q26">
-        <v>27.63336359447811</v>
+        <v>1.941488530323223</v>
       </c>
       <c r="R26">
-        <v>248.700272350303</v>
+        <v>17.473396772909</v>
       </c>
       <c r="S26">
-        <v>0.01906206995656654</v>
+        <v>0.001625932724096242</v>
       </c>
       <c r="T26">
-        <v>0.01906206995656654</v>
+        <v>0.001625932724096241</v>
       </c>
     </row>
   </sheetData>
